--- a/test-code-generator/Evaluation/QuantitativeEvaluation/9/UC3.4.2_TC2.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/9/UC3.4.2_TC2.xlsx
@@ -612,11 +612,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.290721687662401</v>
+        <v>0.3054275700153422</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.29072168766240103, 'ngram_match_score': 0.13052896068713066, 'weighted_ngram_match_score': 0.14547996190817472, 'syntax_match_score': 0.5692307692307692, 'dataflow_match_score': 0.3176470588235294}</t>
+          <t>{'codebleu': 0.30542757001534215, 'ngram_match_score': 0.13052896068713066, 'weighted_ngram_match_score': 0.14547996190817472, 'syntax_match_score': 0.5692307692307692, 'dataflow_match_score': 0.3764705882352941}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">
